--- a/team_specific_matrix/Mt. Marty_A.xlsx
+++ b/team_specific_matrix/Mt. Marty_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2857142857142857</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C2">
-        <v>0.5714285714285714</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1428571428571428</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.25</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -782,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.25</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="S6">
-        <v>0.5</v>
+        <v>0.5238095238095238</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.25</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="S7">
-        <v>0.75</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1538461538461539</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03846153846153846</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03846153846153846</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2307692307692308</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R8">
-        <v>0.1153846153846154</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S8">
-        <v>0.2692307692307692</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="R9">
-        <v>0.3</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="S9">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -979,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="F10">
-        <v>0.0303030303030303</v>
+        <v>0.04950495049504951</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06060606060606061</v>
+        <v>0.0594059405940594</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0303030303030303</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.06060606060606061</v>
+        <v>0.2079207920792079</v>
       </c>
       <c r="R10">
-        <v>0.1818181818181818</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="S10">
-        <v>0.6363636363636364</v>
+        <v>0.5445544554455446</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L11">
-        <v>0.6</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.2</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1283,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2222222222222222</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2222222222222222</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K15">
-        <v>0.1111111111111111</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1111111111111111</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3333333333333333</v>
+        <v>0.3214285714285715</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1395,22 +1395,22 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.4444444444444444</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="J17">
-        <v>0.3333333333333333</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1111111111111111</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1111111111111111</v>
+        <v>0.06976744186046512</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.3076923076923077</v>
+        <v>0.28</v>
       </c>
       <c r="I18">
-        <v>0.1538461538461539</v>
+        <v>0.12</v>
       </c>
       <c r="J18">
-        <v>0.3846153846153846</v>
+        <v>0.44</v>
       </c>
       <c r="K18">
-        <v>0.07692307692307693</v>
+        <v>0.04</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07692307692307693</v>
+        <v>0.08</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.3265306122448979</v>
+        <v>0.25</v>
       </c>
       <c r="I19">
-        <v>0.163265306122449</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="J19">
-        <v>0.2857142857142857</v>
+        <v>0.3109756097560976</v>
       </c>
       <c r="K19">
-        <v>0.04081632653061224</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02040816326530612</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.08163265306122448</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08163265306122448</v>
+        <v>0.1585365853658537</v>
       </c>
     </row>
   </sheetData>
